--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.1/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.1/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="952">
   <si>
     <t>anchor score</t>
   </si>
@@ -271,544 +271,544 @@
     <t>supply</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>dow</t>
+  </si>
+  <si>
+    <t>hopefully</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>sir</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>bakery</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>cares</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>rental</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>comfort</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>mumbai</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>developed</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>chance</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>excited</t>
-  </si>
-  <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>laugh</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>dow</t>
-  </si>
-  <si>
-    <t>hopefully</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>sir</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>bakery</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>cares</t>
-  </si>
-  <si>
-    <t>bright</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>rich</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>solutions</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>rental</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>beach</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>comfort</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>mumbai</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>rally</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>ads</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>developed</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>better</t>
@@ -3235,10 +3235,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3296,7 +3296,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03861477721728452</v>
+        <v>0.03939577500177929</v>
       </c>
       <c r="C3">
         <v>197</v>
@@ -3317,28 +3317,28 @@
         <v>95</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>87</v>
+        <v>263</v>
       </c>
       <c r="K3">
-        <v>0.004572777705925439</v>
+        <v>0.007790513506011051</v>
       </c>
       <c r="L3">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="M3">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3346,7 +3346,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02058801300918424</v>
+        <v>0.02100441299142019</v>
       </c>
       <c r="C4">
         <v>56</v>
@@ -3367,16 +3367,16 @@
         <v>460</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K4">
-        <v>0.003848380716485328</v>
+        <v>0.007108329745334551</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="M4">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3396,7 +3396,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01375594481335932</v>
+        <v>0.01403416375432105</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -3417,28 +3417,28 @@
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="K5">
-        <v>0.003574532746420096</v>
+        <v>0.004572777705925439</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>254</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3446,7 +3446,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01347801828904605</v>
+        <v>0.01375061606589955</v>
       </c>
       <c r="C6">
         <v>24</v>
@@ -3467,28 +3467,28 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="K6">
-        <v>0.003305741652368929</v>
+        <v>0.003848380716485328</v>
       </c>
       <c r="L6">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="M6">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3496,7 +3496,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01065530903469779</v>
+        <v>0.01087081649968664</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -3517,16 +3517,16 @@
         <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K7">
-        <v>0.003277885686146341</v>
+        <v>0.003574532746420096</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3546,7 +3546,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.00991955287340399</v>
+        <v>0.01012017940489255</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -3567,28 +3567,28 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>268</v>
+        <v>94</v>
       </c>
       <c r="K8">
-        <v>0.003095636165059163</v>
+        <v>0.003305741652368929</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3596,7 +3596,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.00991955287340399</v>
+        <v>0.01012017940489255</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -3617,16 +3617,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K9">
-        <v>0.003048371768693409</v>
+        <v>0.003277885686146341</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3646,7 +3646,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009124661516549663</v>
+        <v>0.009309211083897682</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -3667,16 +3667,16 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K10">
-        <v>0.003000362913700901</v>
+        <v>0.003095636165059163</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>184</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3696,7 +3696,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008253566888015594</v>
+        <v>0.008420498252592631</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3717,28 +3717,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>269</v>
       </c>
       <c r="K11">
-        <v>0.002817349763178358</v>
+        <v>0.003048371768693409</v>
       </c>
       <c r="L11">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="N11">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3746,7 +3746,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.008253566888015594</v>
+        <v>0.008420498252592631</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -3767,16 +3767,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K12">
-        <v>0.00280010826735162</v>
+        <v>0.003000362913700901</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>64</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3796,7 +3796,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008253566888015594</v>
+        <v>0.008420498252592631</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -3817,28 +3817,28 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>272</v>
+        <v>90</v>
       </c>
       <c r="K13">
-        <v>0.002747765179675234</v>
+        <v>0.002817349763178358</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3846,7 +3846,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007781537487323436</v>
+        <v>0.007938921887170299</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -3867,16 +3867,16 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K14">
-        <v>0.002639967391867793</v>
+        <v>0.00280010826735162</v>
       </c>
       <c r="L14">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3896,7 +3896,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007781537487323436</v>
+        <v>0.007938921887170299</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -3917,16 +3917,16 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K15">
-        <v>0.002639967391867793</v>
+        <v>0.002747765179675234</v>
       </c>
       <c r="L15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3946,7 +3946,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007278961804975517</v>
+        <v>0.007426181430538016</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -3967,7 +3967,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K16">
         <v>0.002639967391867793</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3996,7 +3996,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006739009144523024</v>
+        <v>0.006875308032949774</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K17">
         <v>0.002639967391867793</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4046,7 +4046,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006739009144523024</v>
+        <v>0.006875308032949774</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4067,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K18">
-        <v>0.002584382905815238</v>
+        <v>0.002639967391867793</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4096,7 +4096,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006739009144523024</v>
+        <v>0.006875308032949774</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4117,28 +4117,28 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K19">
-        <v>0.002584382905815238</v>
+        <v>0.002639967391867793</v>
       </c>
       <c r="L19">
+        <v>24</v>
+      </c>
+      <c r="M19">
+        <v>24</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>23</v>
-      </c>
-      <c r="M19">
-        <v>23</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4146,7 +4146,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006739009144523024</v>
+        <v>0.006875308032949774</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4167,16 +4167,16 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K20">
-        <v>0.002469463373156116</v>
+        <v>0.002584382905815238</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>846</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4196,7 +4196,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006151845539481421</v>
+        <v>0.006276268832405106</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -4217,16 +4217,16 @@
         <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K21">
-        <v>0.002469463373156116</v>
+        <v>0.002584382905815238</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4238,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4246,7 +4246,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006151845539481421</v>
+        <v>0.006276268832405106</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4267,7 +4267,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K22">
         <v>0.002469463373156116</v>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>38</v>
+        <v>846</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4296,7 +4296,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006151845539481421</v>
+        <v>0.006276268832405106</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4317,16 +4317,16 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K23">
-        <v>0.002409949486006784</v>
+        <v>0.002469463373156116</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4346,7 +4346,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006151845539481421</v>
+        <v>0.006276268832405106</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4367,28 +4367,28 @@
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>89</v>
+        <v>281</v>
       </c>
       <c r="K24">
-        <v>0.002358432866925334</v>
+        <v>0.002469463373156116</v>
       </c>
       <c r="L24">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4396,7 +4396,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006151845539481421</v>
+        <v>0.006276268832405106</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4417,16 +4417,16 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K25">
-        <v>0.00234892820214862</v>
+        <v>0.002409949486006784</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4446,7 +4446,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005502377925343729</v>
+        <v>0.00561366550172842</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -4467,28 +4467,28 @@
         <v>30</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K26">
-        <v>0.002320871717936438</v>
+        <v>0.002358432866925334</v>
       </c>
       <c r="L26">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="M26">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4496,7 +4496,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005502377925343729</v>
+        <v>0.00561366550172842</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -4517,16 +4517,16 @@
         <v>9</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K27">
-        <v>0.002286278826520056</v>
+        <v>0.00234892820214862</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4546,7 +4546,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005502377925343729</v>
+        <v>0.00561366550172842</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -4567,28 +4567,28 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>285</v>
+        <v>85</v>
       </c>
       <c r="K28">
-        <v>0.002286278826520056</v>
+        <v>0.002320871717936438</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>22</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4596,7 +4596,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005502377925343729</v>
+        <v>0.00561366550172842</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4617,7 +4617,7 @@
         <v>11</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K29">
         <v>0.002286278826520056</v>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4646,7 +4646,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005502377925343729</v>
+        <v>0.00561366550172842</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4667,7 +4667,7 @@
         <v>33</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K30">
         <v>0.002286278826520056</v>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4696,7 +4696,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005502377925343729</v>
+        <v>0.00561366550172842</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4717,28 +4717,28 @@
         <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>91</v>
+        <v>286</v>
       </c>
       <c r="K31">
-        <v>0.002267900083297001</v>
+        <v>0.002286278826520056</v>
       </c>
       <c r="L31">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4746,7 +4746,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005502377925343729</v>
+        <v>0.00561366550172842</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4767,28 +4767,28 @@
         <v>26</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>90</v>
+        <v>287</v>
       </c>
       <c r="K32">
-        <v>0.002267900083297001</v>
+        <v>0.002286278826520056</v>
       </c>
       <c r="L32">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>2997</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4796,7 +4796,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004765199064570384</v>
+        <v>0.004861576932845129</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -4817,28 +4817,28 @@
         <v>9</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>288</v>
+        <v>89</v>
       </c>
       <c r="K33">
-        <v>0.002221863642606969</v>
+        <v>0.002267900083297001</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>550</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4846,7 +4846,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004765199064570384</v>
+        <v>0.004861576932845129</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -4867,28 +4867,28 @@
         <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>289</v>
+        <v>88</v>
       </c>
       <c r="K34">
-        <v>0.002221863642606969</v>
+        <v>0.002267900083297001</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4896,7 +4896,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004765199064570384</v>
+        <v>0.004861576932845129</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -4917,7 +4917,7 @@
         <v>23</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K35">
         <v>0.002221863642606969</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>52</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4946,7 +4946,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004765199064570384</v>
+        <v>0.004861576932845129</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -4967,28 +4967,28 @@
         <v>3</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K36">
-        <v>0.002155524349220739</v>
+        <v>0.002221863642606969</v>
       </c>
       <c r="L36">
+        <v>17</v>
+      </c>
+      <c r="M36">
+        <v>17</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>16</v>
-      </c>
-      <c r="M36">
-        <v>16</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4996,7 +4996,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004765199064570384</v>
+        <v>0.004861576932845129</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -5017,16 +5017,16 @@
         <v>23</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K37">
-        <v>0.002087077476719126</v>
+        <v>0.002221863642606969</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5046,7 +5046,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004765199064570384</v>
+        <v>0.004861576932845129</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -5067,16 +5067,16 @@
         <v>3</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K38">
-        <v>0.002087077476719126</v>
+        <v>0.002155524349220739</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5096,7 +5096,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004765199064570384</v>
+        <v>0.004861576932845129</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -5117,28 +5117,28 @@
         <v>13</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>85</v>
+        <v>292</v>
       </c>
       <c r="K39">
-        <v>0.002080123048358816</v>
+        <v>0.002087077476719126</v>
       </c>
       <c r="L39">
-        <v>209</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>117</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5146,7 +5146,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004765199064570384</v>
+        <v>0.004861576932845129</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5167,28 +5167,28 @@
         <v>4</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>93</v>
+        <v>293</v>
       </c>
       <c r="K40">
-        <v>0.002076557340923025</v>
+        <v>0.002087077476719126</v>
       </c>
       <c r="L40">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5196,7 +5196,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.003890768743661718</v>
+        <v>0.003969460943585149</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -5217,16 +5217,16 @@
         <v>9</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K41">
-        <v>0.002017993743396102</v>
+        <v>0.002076557340923025</v>
       </c>
       <c r="L41">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M41">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N41">
         <v>0.97</v>
@@ -5238,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>321</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5246,7 +5246,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.003890768743661718</v>
+        <v>0.003969460943585149</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -5267,28 +5267,28 @@
         <v>49</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>294</v>
+        <v>92</v>
       </c>
       <c r="K42">
-        <v>0.002016308400908218</v>
+        <v>0.002017993743396102</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>35</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5296,7 +5296,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.003890768743661718</v>
+        <v>0.003969460943585149</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -5317,7 +5317,7 @@
         <v>10</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K43">
         <v>0.002016308400908218</v>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5346,7 +5346,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.003890768743661718</v>
+        <v>0.003969460943585149</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -5367,7 +5367,7 @@
         <v>22</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K44">
         <v>0.002016308400908218</v>
@@ -5388,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5396,7 +5396,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.003890768743661718</v>
+        <v>0.003969460943585149</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -5417,7 +5417,7 @@
         <v>7</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K45">
         <v>0.002016308400908218</v>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5446,7 +5446,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003890768743661718</v>
+        <v>0.003969460943585149</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -5467,16 +5467,16 @@
         <v>15</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K46">
-        <v>0.00194296339165663</v>
+        <v>0.002016308400908218</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>314</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5496,7 +5496,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.003890768743661718</v>
+        <v>0.003969460943585149</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -5517,7 +5517,7 @@
         <v>53</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K47">
         <v>0.00194296339165663</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>65</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5546,7 +5546,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003890768743661718</v>
+        <v>0.003969460943585149</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -5567,7 +5567,7 @@
         <v>30</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K48">
         <v>0.00194296339165663</v>
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5596,7 +5596,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -5617,7 +5617,7 @@
         <v>30</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K49">
         <v>0.00194296339165663</v>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5646,7 +5646,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -5667,7 +5667,7 @@
         <v>10</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K50">
         <v>0.00194296339165663</v>
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5696,7 +5696,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -5717,7 +5717,7 @@
         <v>30</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K51">
         <v>0.00194296339165663</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -5746,7 +5746,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5767,28 +5767,28 @@
         <v>7</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>101</v>
+        <v>303</v>
       </c>
       <c r="K52">
-        <v>0.001922624128287974</v>
+        <v>0.00194296339165663</v>
       </c>
       <c r="L52">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="N52">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -5796,7 +5796,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5817,28 +5817,28 @@
         <v>12</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>304</v>
+        <v>99</v>
       </c>
       <c r="K53">
-        <v>0.00186673884490108</v>
+        <v>0.001922624128287974</v>
       </c>
       <c r="L53">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="M53">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -5846,7 +5846,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5867,7 +5867,7 @@
         <v>7</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K54">
         <v>0.00186673884490108</v>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -5896,7 +5896,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5917,7 +5917,7 @@
         <v>76</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K55">
         <v>0.00186673884490108</v>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -5946,7 +5946,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5967,7 +5967,7 @@
         <v>15</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K56">
         <v>0.00186673884490108</v>
@@ -5988,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -5996,7 +5996,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -6017,7 +6017,7 @@
         <v>11</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K57">
         <v>0.00186673884490108</v>
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -6046,7 +6046,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -6067,7 +6067,7 @@
         <v>18</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K58">
         <v>0.00186673884490108</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -6096,7 +6096,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -6117,28 +6117,28 @@
         <v>17</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>88</v>
+        <v>309</v>
       </c>
       <c r="K59">
-        <v>0.001865039698414434</v>
+        <v>0.00186673884490108</v>
       </c>
       <c r="L59">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M59">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="N59">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -6146,7 +6146,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -6167,7 +6167,7 @@
         <v>7</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K60">
         <v>0.001809000357998657</v>
@@ -6196,7 +6196,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6246,7 +6246,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6296,7 +6296,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -6346,7 +6346,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -6396,7 +6396,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6446,7 +6446,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6467,7 +6467,7 @@
         <v>12</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K66">
         <v>0.001774209811796522</v>
@@ -6496,7 +6496,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6546,7 +6546,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6596,7 +6596,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6646,7 +6646,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6696,7 +6696,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6746,7 +6746,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6796,7 +6796,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6846,7 +6846,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6896,7 +6896,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6946,7 +6946,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6996,7 +6996,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -7017,7 +7017,7 @@
         <v>33</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K77">
         <v>0.001692258895092868</v>
@@ -7046,7 +7046,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7067,7 +7067,7 @@
         <v>6</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K78">
         <v>0.001692258895092868</v>
@@ -7096,7 +7096,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002751188962671864</v>
+        <v>0.00280683275086421</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7117,7 +7117,7 @@
         <v>170</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K79">
         <v>0.001662553913678983</v>
@@ -7146,25 +7146,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002748573656105701</v>
+        <v>0.002673542381826533</v>
       </c>
       <c r="C80">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D80">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="E80">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F80">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>325</v>
@@ -7196,25 +7196,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.00262054099584377</v>
+        <v>0.002603918876721645</v>
       </c>
       <c r="C81">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="E81">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F81">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>326</v>
@@ -7246,25 +7246,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002552297735276099</v>
+        <v>0.00218009413866559</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="E82">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F82">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>327</v>
@@ -7296,25 +7296,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002500527056191824</v>
+        <v>0.001977954281429609</v>
       </c>
       <c r="C83">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="E83">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F83">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>53</v>
+        <v>2997</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>328</v>
@@ -7346,13 +7346,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002136875070321054</v>
+        <v>0.001977954281429609</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E84">
         <v>0.97</v>
@@ -7364,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>329</v>
@@ -7396,25 +7396,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.001938742515407524</v>
+        <v>0.001918608776912345</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E85">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F85">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>2997</v>
+        <v>23</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>330</v>
@@ -7446,13 +7446,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.001938742515407524</v>
+        <v>0.001902139138802881</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
       <c r="D86">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E86">
         <v>0.97</v>
@@ -7464,7 +7464,7 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>331</v>
@@ -7496,25 +7496,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.001880573500185003</v>
+        <v>0.001877760112702757</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E87">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F87">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>23</v>
+        <v>321</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>332</v>
@@ -7546,25 +7546,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.001864430362845592</v>
+        <v>0.001656459427879275</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D88">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E88">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F88">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>333</v>
@@ -7596,25 +7596,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.001840534636423454</v>
+        <v>0.001619769741547676</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="E89">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F89">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>321</v>
+        <v>14</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>334</v>
@@ -7646,25 +7646,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.001623621105921635</v>
+        <v>0.001584853457836082</v>
       </c>
       <c r="C90">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D90">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E90">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F90">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>335</v>
@@ -7696,25 +7696,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.001587658770777758</v>
+        <v>0.001561002660730713</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E91">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F91">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>336</v>
@@ -7746,13 +7746,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.001553434681602769</v>
+        <v>0.00149488395478232</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E92">
         <v>0.97</v>
@@ -7764,7 +7764,7 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>12</v>
+        <v>2082</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>337</v>
@@ -7796,25 +7796,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.001530056712350054</v>
+        <v>0.00138922232839737</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E93">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F93">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>338</v>
@@ -7846,28 +7846,28 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.001465248770382241</v>
+        <v>0.001338209067732313</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E94">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F94">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>2082</v>
+        <v>2</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K94">
         <v>0.001572114644050782</v>
@@ -7896,28 +7896,28 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.001361681822833004</v>
+        <v>0.001323677027275587</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E95">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F95">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K95">
         <v>0.001558816143665353</v>
@@ -7946,13 +7946,13 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.001311679869689057</v>
+        <v>0.001306653916630521</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E96">
         <v>0.98</v>
@@ -7964,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>363</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>339</v>
@@ -7996,25 +7996,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.001297435918282499</v>
+        <v>0.001272242151777702</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E97">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F97">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>340</v>
@@ -8046,13 +8046,13 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.001280750280670986</v>
+        <v>0.001272242151777702</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E98">
         <v>0.98</v>
@@ -8064,7 +8064,7 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>363</v>
+        <v>852</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>341</v>
@@ -8096,13 +8096,13 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.001247020708568769</v>
+        <v>0.00126313684141878</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E99">
         <v>0.98</v>
@@ -8114,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>342</v>
@@ -8146,13 +8146,13 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.001247020708568769</v>
+        <v>0.001234472638543949</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E100">
         <v>0.98</v>
@@ -8164,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>852</v>
+        <v>1</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>343</v>
@@ -8196,13 +8196,13 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001238095905566719</v>
+        <v>0.001214135506727969</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E101">
         <v>0.98</v>
@@ -8214,7 +8214,7 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>344</v>
@@ -8246,13 +8246,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.001209999953448182</v>
+        <v>0.00119270540757908</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E102">
         <v>0.98</v>
@@ -8264,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>853</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>345</v>
@@ -8296,25 +8296,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.001190065993162411</v>
+        <v>0.001103795566852931</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E103">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F103">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>346</v>
@@ -8346,25 +8346,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.001169060732970391</v>
+        <v>0.001083651654427366</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E104">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F104">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>853</v>
+        <v>0</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>347</v>
@@ -8396,13 +8396,13 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.001081913476902718</v>
+        <v>0.001083651654427366</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E105">
         <v>0.9399999999999999</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>348</v>
@@ -8446,25 +8446,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.001062168905547984</v>
+        <v>0.001064600878982075</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E106">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F106">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>349</v>
@@ -8496,25 +8496,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001062168905547984</v>
+        <v>0.001049348685483848</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E107">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F107">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>350</v>
@@ -8546,25 +8546,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001043495800383706</v>
+        <v>0.001042204823233823</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E108">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F108">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>351</v>
@@ -8596,13 +8596,13 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.00102854597254094</v>
+        <v>0.001033535959861596</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E109">
         <v>0.97</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>352</v>
@@ -8646,25 +8646,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001021543733106808</v>
+        <v>0.001033535959861596</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E110">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F110">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>353</v>
@@ -8696,25 +8696,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001013046724789786</v>
+        <v>0.0009943826759760317</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E111">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F111">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>44</v>
+        <v>3168</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>354</v>
@@ -8746,28 +8746,28 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001013046724789786</v>
+        <v>0.0009638453002122423</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E112">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F112">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K112">
         <v>0.00151066515404738</v>
@@ -8796,28 +8796,28 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.0009746696314467086</v>
+        <v>0.000948521730261402</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E113">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F113">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>3168</v>
+        <v>70</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K113">
         <v>0.001448236838605417</v>
@@ -8846,13 +8846,13 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.000944737640976513</v>
+        <v>0.0009445626929703578</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E114">
         <v>0.96</v>
@@ -8864,7 +8864,7 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>190</v>
+        <v>54</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>355</v>
@@ -8896,25 +8896,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.0009297178516768115</v>
+        <v>0.0009445626929703578</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E115">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F115">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>356</v>
@@ -8946,25 +8946,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.0009258372999429849</v>
+        <v>0.0008812241284091836</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
+        <v>21</v>
+      </c>
+      <c r="E116">
+        <v>0.95</v>
+      </c>
+      <c r="F116">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116">
         <v>24</v>
-      </c>
-      <c r="E116">
-        <v>0.96</v>
-      </c>
-      <c r="F116">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116">
-        <v>54</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>357</v>
@@ -8996,25 +8996,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.0009258372999429849</v>
+        <v>0.0008697162782747502</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117">
         <v>24</v>
       </c>
       <c r="E117">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F117">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>358</v>
@@ -9046,13 +9046,13 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.0008637543847145913</v>
+        <v>0.0008580033971586991</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E118">
         <v>0.95</v>
@@ -9064,7 +9064,7 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>359</v>
@@ -9096,19 +9096,19 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.0008524746708576872</v>
+        <v>0.0008413905385279407</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E119">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F119">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
@@ -9146,25 +9146,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.0008409939906363076</v>
+        <v>0.0008413905385279407</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E120">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F120">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>361</v>
@@ -9196,25 +9196,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.0008247104720371682</v>
+        <v>0.0008335609485536525</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E121">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F121">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>362</v>
@@ -9246,25 +9246,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.0008247104720371682</v>
+        <v>0.0008077740894491206</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E122">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F122">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>363</v>
@@ -9296,25 +9296,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.0008170360990226467</v>
+        <v>0.0008077740894491206</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E123">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F123">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>364</v>
@@ -9346,7 +9346,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.000791760449047236</v>
+        <v>0.0008077740894491206</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9364,7 +9364,7 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>365</v>
@@ -9396,7 +9396,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.000791760449047236</v>
+        <v>0.0008077740894491206</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9414,7 +9414,7 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>366</v>
@@ -9446,7 +9446,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.000791760449047236</v>
+        <v>0.0008077740894491206</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9464,7 +9464,7 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>367</v>
@@ -9496,25 +9496,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.000791760449047236</v>
+        <v>0.0007811870330292948</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D127">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E127">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F127">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>101</v>
+        <v>1140</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>368</v>
@@ -9546,13 +9546,13 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.000791760449047236</v>
+        <v>0.0007805013303653565</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E128">
         <v>0.9399999999999999</v>
@@ -9564,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>10</v>
+        <v>332</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>369</v>
@@ -9596,25 +9596,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.0007657004651918967</v>
+        <v>0.0007805013303653565</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E129">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F129">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>1140</v>
+        <v>633</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>370</v>
@@ -9646,13 +9646,13 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.0007650283561750268</v>
+        <v>0.0007515784427992149</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E130">
         <v>0.9399999999999999</v>
@@ -9664,10 +9664,10 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>332</v>
+        <v>96</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K130">
         <v>0.001333577211903552</v>
@@ -9696,13 +9696,13 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.0007650283561750268</v>
+        <v>0.0007515784427992149</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E131">
         <v>0.9399999999999999</v>
@@ -9714,7 +9714,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>633</v>
+        <v>26</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>371</v>
@@ -9746,7 +9746,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.0007366788476351724</v>
+        <v>0.0007515784427992149</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9764,7 +9764,7 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>372</v>
@@ -9796,7 +9796,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.0007366788476351724</v>
+        <v>0.0007515784427992149</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -9814,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>373</v>
@@ -9846,7 +9846,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.0007366788476351724</v>
+        <v>0.0007515784427992149</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -9864,7 +9864,7 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>374</v>
@@ -9896,25 +9896,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.0007366788476351724</v>
+        <v>0.0007208134602301327</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E135">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F135">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>375</v>
@@ -9946,25 +9946,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.0007366788476351724</v>
+        <v>0.0007208134602301327</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E136">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F136">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>376</v>
@@ -9996,13 +9996,13 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.0007065237625290894</v>
+        <v>0.0006879802826497089</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E137">
         <v>0.93</v>
@@ -10014,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>377</v>
@@ -10046,13 +10046,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.0007065237625290894</v>
+        <v>0.0006879802826497089</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E138">
         <v>0.93</v>
@@ -10064,7 +10064,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>378</v>
@@ -10096,7 +10096,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.0006743414831464311</v>
+        <v>0.0006879802826497089</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10114,7 +10114,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>379</v>
@@ -10146,25 +10146,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.0006743414831464311</v>
+        <v>0.0006805338795735712</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E140">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F140">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>380</v>
@@ -10196,25 +10196,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.0006743414831464311</v>
+        <v>0.0006741548455922107</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D141">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E141">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F141">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>381</v>
@@ -10246,25 +10246,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.0006670427005779406</v>
+        <v>0.0006528104233735012</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E142">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F142">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>382</v>
@@ -10296,25 +10296,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.0006607901271473988</v>
+        <v>0.0006149822780764021</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E143">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F143">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>383</v>
@@ -10346,13 +10346,13 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.0006398688453914264</v>
+        <v>0.0006149822780764021</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E144">
         <v>0.92</v>
@@ -10364,7 +10364,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>384</v>
@@ -10396,25 +10396,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.0006027906205532407</v>
+        <v>0.000605120386589903</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E145">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F145">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>385</v>
@@ -10446,25 +10446,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.0006027906205532407</v>
+        <v>0.000605120386589903</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E146">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F146">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>386</v>
@@ -10496,25 +10496,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.0005931242351940239</v>
+        <v>0.0005741071056522629</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E147">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F147">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>387</v>
@@ -10546,25 +10546,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.0005931242351940239</v>
+        <v>0.0005297107410726253</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E148">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F148">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>388</v>
@@ -10596,25 +10596,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.0005627257740867112</v>
+        <v>0.0005297107410726253</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E149">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F149">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>389</v>
@@ -10646,7 +10646,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.0005192095410027671</v>
+        <v>0.0005297107410726253</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10664,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>227</v>
+        <v>8</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>390</v>
@@ -10696,7 +10696,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0005192095410027671</v>
+        <v>0.0005297107410726253</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -10714,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>391</v>
@@ -10746,7 +10746,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0005192095410027671</v>
+        <v>0.0005297107410726253</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -10764,7 +10764,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>392</v>
@@ -10796,19 +10796,19 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0005192095410027671</v>
+        <v>0.000481210121073662</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E153">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F153">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
@@ -10846,25 +10846,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0005192095410027671</v>
+        <v>0.000481210121073662</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E154">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F154">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>394</v>
@@ -10896,7 +10896,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0004716704169196501</v>
+        <v>0.000481210121073662</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -10914,7 +10914,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>395</v>
@@ -10946,7 +10946,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0004716704169196501</v>
+        <v>0.000481210121073662</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -10964,7 +10964,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>396</v>
@@ -10996,7 +10996,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0004716704169196501</v>
+        <v>0.000481210121073662</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -11014,7 +11014,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>397</v>
@@ -11046,7 +11046,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0004716704169196501</v>
+        <v>0.000481210121073662</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -11064,7 +11064,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>398</v>
@@ -11096,7 +11096,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0004716704169196501</v>
+        <v>0.000481210121073662</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11114,7 +11114,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>399</v>
@@ -11146,7 +11146,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0004716704169196501</v>
+        <v>0.000481210121073662</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11196,25 +11196,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0004716704169196501</v>
+        <v>0.0004763938372539488</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E161">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F161">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>401</v>
@@ -11246,25 +11246,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0004716704169196501</v>
+        <v>0.0004763938372539488</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E162">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F162">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>402</v>
@@ -11296,25 +11296,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0004669496130592098</v>
+        <v>0.0004285609188162675</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
       <c r="D163">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E163">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F163">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>403</v>
@@ -11346,25 +11346,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0004669496130592098</v>
+        <v>0.0004278847287919455</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E164">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F164">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>404</v>
@@ -11396,25 +11396,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0004200649537514494</v>
+        <v>0.0004278847287919455</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E165">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F165">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>405</v>
@@ -11446,7 +11446,7 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0004194021687917789</v>
+        <v>0.0004278847287919455</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -11464,7 +11464,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>406</v>
@@ -11496,7 +11496,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0004194021687917789</v>
+        <v>0.0004278847287919455</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>407</v>
@@ -11546,7 +11546,7 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0004194021687917789</v>
+        <v>0.0004278847287919455</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -11564,7 +11564,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>408</v>
@@ -11596,7 +11596,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0004194021687917789</v>
+        <v>0.0004278847287919455</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -11614,7 +11614,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>409</v>
@@ -11646,7 +11646,7 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0004194021687917789</v>
+        <v>0.0004278847287919455</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -11664,7 +11664,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>410</v>
@@ -11696,25 +11696,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0004194021687917789</v>
+        <v>0.0003779275271538103</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E171">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F171">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>411</v>
@@ -11746,25 +11746,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0004194021687917789</v>
+        <v>0.0003688476228957069</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E172">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F172">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>412</v>
@@ -11796,25 +11796,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.000370435338933287</v>
+        <v>0.0003688476228957069</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E173">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F173">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>413</v>
@@ -11846,7 +11846,7 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0003615354383712319</v>
+        <v>0.0003688476228957069</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -11864,7 +11864,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>414</v>
@@ -11896,7 +11896,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0003615354383712319</v>
+        <v>0.0003688476228957069</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -11914,7 +11914,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>415</v>
@@ -11946,7 +11946,7 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0003615354383712319</v>
+        <v>0.0003688476228957069</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -11964,7 +11964,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>416</v>
@@ -11996,7 +11996,7 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0003615354383712319</v>
+        <v>0.0003688476228957069</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -12014,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>417</v>
@@ -12046,7 +12046,7 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0003615354383712319</v>
+        <v>0.0003688476228957069</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -12064,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>418</v>
@@ -12096,7 +12096,7 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0003615354383712319</v>
+        <v>0.0003688476228957069</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -12114,7 +12114,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>419</v>
@@ -12146,7 +12146,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0003615354383712319</v>
+        <v>0.0003688476228957069</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -12164,7 +12164,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>420</v>
@@ -12196,7 +12196,7 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0003615354383712319</v>
+        <v>0.0003688476228957069</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -12214,7 +12214,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>421</v>
@@ -12246,7 +12246,7 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0003615354383712319</v>
+        <v>0.0003688476228957069</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -12264,7 +12264,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>422</v>
@@ -12296,25 +12296,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0003615354383712319</v>
+        <v>0.0003030383318465201</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E183">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F183">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>423</v>
@@ -12346,25 +12346,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0003615354383712319</v>
+        <v>0.0003030383318465201</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E184">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F184">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>424</v>
@@ -12396,7 +12396,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0002970307773364633</v>
+        <v>0.0003030383318465201</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12414,7 +12414,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>425</v>
@@ -12446,7 +12446,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0002970307773364633</v>
+        <v>0.0003030383318465201</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12464,7 +12464,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>426</v>
@@ -12496,7 +12496,7 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0002970307773364633</v>
+        <v>0.0003030383318465201</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -12514,7 +12514,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>427</v>
@@ -12546,7 +12546,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0002970307773364633</v>
+        <v>0.0003030383318465201</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12564,7 +12564,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>428</v>
@@ -12596,7 +12596,7 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0002970307773364633</v>
+        <v>0.0003030383318465201</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -12614,7 +12614,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>429</v>
@@ -12646,7 +12646,7 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0002970307773364633</v>
+        <v>0.0003030383318465201</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -12664,7 +12664,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>430</v>
@@ -12696,7 +12696,7 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0002970307773364633</v>
+        <v>0.0003030383318465201</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -12714,7 +12714,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>431</v>
@@ -12746,25 +12746,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0002970307773364633</v>
+        <v>0.0002676643660936297</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
+        <v>9</v>
+      </c>
+      <c r="E192">
+        <v>0.78</v>
+      </c>
+      <c r="F192">
+        <v>0.22</v>
+      </c>
+      <c r="G192" t="b">
+        <v>1</v>
+      </c>
+      <c r="H192">
         <v>6</v>
-      </c>
-      <c r="E192">
-        <v>0.83</v>
-      </c>
-      <c r="F192">
-        <v>0.17</v>
-      </c>
-      <c r="G192" t="b">
-        <v>1</v>
-      </c>
-      <c r="H192">
-        <v>1</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>432</v>
@@ -12796,25 +12796,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0002970307773364633</v>
+        <v>0.0002676643660936297</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E193">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F193">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>433</v>
@@ -12846,25 +12846,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0002623580793941579</v>
+        <v>0.0002293299288579033</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E194">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F194">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>434</v>
@@ -12896,25 +12896,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0002623580793941579</v>
+        <v>0.0002293299288579033</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E195">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F195">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>435</v>
@@ -12946,7 +12946,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0002247835995535991</v>
+        <v>0.0002293299288579033</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -12996,7 +12996,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0002247835995535991</v>
+        <v>0.0002293299288579033</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -13014,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>437</v>
@@ -13046,7 +13046,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0002247835995535991</v>
+        <v>0.0002293299288579033</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -13064,10 +13064,10 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K198">
         <v>0.001198781524608979</v>
@@ -13096,7 +13096,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0002247835995535991</v>
+        <v>0.0002293299288579033</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13114,10 +13114,10 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K199">
         <v>0.001119499371726825</v>
@@ -13146,7 +13146,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0002247835995535991</v>
+        <v>0.0002293299288579033</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13164,10 +13164,10 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K200">
         <v>0.001084913786917601</v>
@@ -13196,7 +13196,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0002247835995535991</v>
+        <v>0.0002293299288579033</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13214,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>438</v>
@@ -13246,7 +13246,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0002247835995535991</v>
+        <v>0.0002293299288579033</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13264,7 +13264,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>439</v>
@@ -13296,7 +13296,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0002247835995535991</v>
+        <v>0.0002293299288579033</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13314,7 +13314,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>440</v>
@@ -13346,25 +13346,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0002247835995535991</v>
+        <v>0.0002070416640492661</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D204">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E204">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="F204">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>441</v>
@@ -13396,25 +13396,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0002247835995535991</v>
+        <v>0.0001471585002632337</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E205">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F205">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>442</v>
@@ -13446,25 +13446,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.000202937186325112</v>
+        <v>0.0001471585002632337</v>
       </c>
       <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
         <v>4</v>
       </c>
-      <c r="D206">
-        <v>14</v>
-      </c>
       <c r="E206">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="F206">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>443</v>
@@ -13496,7 +13496,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0001442411706087221</v>
+        <v>0.0001471585002632337</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13514,7 +13514,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>444</v>
@@ -13546,7 +13546,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0001442411706087221</v>
+        <v>0.0001471585002632337</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13564,7 +13564,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>134</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>445</v>
@@ -13596,7 +13596,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0001442411706087221</v>
+        <v>0.0001471585002632337</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13614,7 +13614,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>446</v>
@@ -13646,7 +13646,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0001442411706087221</v>
+        <v>0.0001471585002632337</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13664,7 +13664,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>447</v>
@@ -13696,7 +13696,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0001442411706087221</v>
+        <v>0.0001471585002632337</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -13714,7 +13714,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>448</v>
@@ -13746,7 +13746,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0001442411706087221</v>
+        <v>0.0001471585002632337</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -13764,7 +13764,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>449</v>
@@ -13796,7 +13796,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0001442411706087221</v>
+        <v>0.0001471585002632337</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -13814,7 +13814,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>450</v>
@@ -13846,7 +13846,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0001442411706087221</v>
+        <v>0.0001471585002632337</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -13864,7 +13864,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>451</v>
@@ -13896,7 +13896,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0001442411706087221</v>
+        <v>0.0001471585002632337</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -13914,7 +13914,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>452</v>
@@ -13946,7 +13946,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0001442411706087221</v>
+        <v>0.0001471585002632337</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -13964,7 +13964,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>453</v>
@@ -13996,7 +13996,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0001442411706087221</v>
+        <v>0.0001471585002632337</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -14014,7 +14014,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>454</v>
@@ -14046,7 +14046,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0001442411706087221</v>
+        <v>0.0001471585002632337</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14064,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>455</v>
@@ -14096,7 +14096,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0001442411706087221</v>
+        <v>0.0001471585002632337</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14114,7 +14114,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>456</v>
@@ -14146,25 +14146,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0001442411706087221</v>
+        <v>0.0001464005646373831</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
+        <v>7</v>
+      </c>
+      <c r="E220">
+        <v>0.71</v>
+      </c>
+      <c r="F220">
+        <v>0.29</v>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220">
         <v>4</v>
-      </c>
-      <c r="E220">
-        <v>0.75</v>
-      </c>
-      <c r="F220">
-        <v>0.25</v>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220">
-        <v>2</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>457</v>
@@ -14196,25 +14196,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0001442411706087221</v>
+        <v>0.0001464005646373831</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E221">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F221">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>16</v>
+        <v>961</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>458</v>
@@ -14246,25 +14246,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0001434982606054046</v>
+        <v>8.470796171144381E-05</v>
       </c>
       <c r="C222">
         <v>2</v>
       </c>
       <c r="D222">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E222">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="F222">
-        <v>0.29</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>459</v>
@@ -14296,25 +14296,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0001434982606054046</v>
+        <v>5.98975741466514E-05</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E223">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F223">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>961</v>
+        <v>13</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>460</v>
@@ -14346,25 +14346,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>8.302867680277739E-05</v>
+        <v>5.98975741466514E-05</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224">
         <v>3</v>
       </c>
       <c r="E224">
+        <v>0.67</v>
+      </c>
+      <c r="F224">
         <v>0.33</v>
       </c>
-      <c r="F224">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>461</v>
@@ -14396,7 +14396,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>5.871014040018917E-05</v>
+        <v>5.98975741466514E-05</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14414,7 +14414,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>462</v>
@@ -14446,7 +14446,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>5.871014040018917E-05</v>
+        <v>5.98975741466514E-05</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14464,7 +14464,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>463</v>
@@ -14496,7 +14496,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>5.871014040018917E-05</v>
+        <v>5.98975741466514E-05</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14514,7 +14514,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>464</v>
@@ -14546,7 +14546,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>5.871014040018917E-05</v>
+        <v>5.98975741466514E-05</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14564,7 +14564,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>465</v>
@@ -14596,7 +14596,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>5.871014040018917E-05</v>
+        <v>5.98975741466514E-05</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14614,7 +14614,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>466</v>
@@ -14646,7 +14646,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>5.871014040018917E-05</v>
+        <v>5.98975741466514E-05</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14664,7 +14664,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>467</v>
@@ -14696,7 +14696,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>5.871014040018917E-05</v>
+        <v>5.98975741466514E-05</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14714,7 +14714,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>468</v>
@@ -14746,7 +14746,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>5.871014040018917E-05</v>
+        <v>5.98975741466514E-05</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14764,7 +14764,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>469</v>
@@ -14796,7 +14796,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>5.871014040018917E-05</v>
+        <v>5.98975741466514E-05</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14814,7 +14814,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>470</v>
@@ -14846,7 +14846,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>5.871014040018917E-05</v>
+        <v>5.98975741466514E-05</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14864,7 +14864,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>471</v>
@@ -14896,7 +14896,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>5.871014040018917E-05</v>
+        <v>5.98975741466514E-05</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14914,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>472</v>
@@ -14946,7 +14946,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>5.871014040018917E-05</v>
+        <v>5.98975741466514E-05</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -14964,7 +14964,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>473</v>
@@ -14996,7 +14996,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>5.871014040018917E-05</v>
+        <v>5.98975741466514E-05</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15014,7 +15014,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>474</v>
@@ -15046,7 +15046,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>5.871014040018917E-05</v>
+        <v>5.98975741466514E-05</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15096,25 +15096,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>5.871014040018917E-05</v>
+        <v>2.927091511378319E-05</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E239">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F239">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>476</v>
@@ -15146,25 +15146,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>5.871014040018917E-05</v>
+        <v>0</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D240">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E240">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F240">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>477</v>
@@ -15196,25 +15196,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>2.86906366485679E-05</v>
+        <v>0</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E241">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F241">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>478</v>
@@ -15249,10 +15249,10 @@
         <v>0</v>
       </c>
       <c r="C242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E242">
         <v>0.5</v>
@@ -15264,7 +15264,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>479</v>
@@ -15314,7 +15314,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>480</v>
@@ -15364,7 +15364,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>481</v>
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>482</v>
@@ -15464,7 +15464,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>483</v>
@@ -15514,7 +15514,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>484</v>
@@ -15564,7 +15564,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>485</v>
@@ -15664,7 +15664,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>487</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>489</v>
@@ -15814,10 +15814,10 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K253">
         <v>0.001068370124585493</v>
@@ -15849,10 +15849,10 @@
         <v>0</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D254">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E254">
         <v>0.5</v>
@@ -15864,10 +15864,10 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K254">
         <v>0.001049979968628944</v>
@@ -15914,10 +15914,10 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K255">
         <v>0.001049979968628944</v>
@@ -15949,10 +15949,10 @@
         <v>0</v>
       </c>
       <c r="C256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E256">
         <v>0.5</v>
@@ -15964,7 +15964,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>490</v>
@@ -15991,31 +15991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
-      <c r="A257" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B257">
-        <v>0</v>
-      </c>
-      <c r="C257">
-        <v>1</v>
-      </c>
-      <c r="D257">
-        <v>2</v>
-      </c>
-      <c r="E257">
-        <v>0.5</v>
-      </c>
-      <c r="F257">
-        <v>0.5</v>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257">
-        <v>12</v>
-      </c>
+    <row r="257" spans="10:17">
       <c r="J257" s="1" t="s">
         <v>491</v>
       </c>
@@ -16041,31 +16017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:17">
-      <c r="A258" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-      <c r="D258">
-        <v>2</v>
-      </c>
-      <c r="E258">
-        <v>0.5</v>
-      </c>
-      <c r="F258">
-        <v>0.5</v>
-      </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258">
-        <v>6</v>
-      </c>
+    <row r="258" spans="10:17">
       <c r="J258" s="1" t="s">
         <v>492</v>
       </c>
@@ -16091,7 +16043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="10:17">
       <c r="J259" s="1" t="s">
         <v>493</v>
       </c>
@@ -16117,7 +16069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="10:17">
       <c r="J260" s="1" t="s">
         <v>494</v>
       </c>
@@ -16143,7 +16095,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="10:17">
       <c r="J261" s="1" t="s">
         <v>495</v>
       </c>
@@ -16169,7 +16121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="10:17">
       <c r="J262" s="1" t="s">
         <v>496</v>
       </c>
@@ -16195,7 +16147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="10:17">
       <c r="J263" s="1" t="s">
         <v>497</v>
       </c>
@@ -16221,7 +16173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="10:17">
       <c r="J264" s="1" t="s">
         <v>498</v>
       </c>
@@ -16247,7 +16199,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="10:17">
       <c r="J265" s="1" t="s">
         <v>499</v>
       </c>
@@ -16273,7 +16225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="10:17">
       <c r="J266" s="1" t="s">
         <v>500</v>
       </c>
@@ -16299,7 +16251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="10:17">
       <c r="J267" s="1" t="s">
         <v>501</v>
       </c>
@@ -16325,7 +16277,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="10:17">
       <c r="J268" s="1" t="s">
         <v>502</v>
       </c>
@@ -16351,7 +16303,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="10:17">
       <c r="J269" s="1" t="s">
         <v>503</v>
       </c>
@@ -16377,7 +16329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="10:17">
       <c r="J270" s="1" t="s">
         <v>504</v>
       </c>
@@ -16403,7 +16355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="10:17">
       <c r="J271" s="1" t="s">
         <v>505</v>
       </c>
@@ -16429,7 +16381,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="10:17">
       <c r="J272" s="1" t="s">
         <v>506</v>
       </c>
@@ -18121,7 +18073,7 @@
     </row>
     <row r="337" spans="10:17">
       <c r="J337" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K337">
         <v>0.0009065449883260403</v>
@@ -18147,7 +18099,7 @@
     </row>
     <row r="338" spans="10:17">
       <c r="J338" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K338">
         <v>0.0008894601234000812</v>
@@ -18173,7 +18125,7 @@
     </row>
     <row r="339" spans="10:17">
       <c r="J339" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K339">
         <v>0.0008697032897424308</v>
@@ -18199,7 +18151,7 @@
     </row>
     <row r="340" spans="10:17">
       <c r="J340" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K340">
         <v>0.0008697032897424308</v>
@@ -18225,7 +18177,7 @@
     </row>
     <row r="341" spans="10:17">
       <c r="J341" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K341">
         <v>0.0008476665452121571</v>
@@ -18251,7 +18203,7 @@
     </row>
     <row r="342" spans="10:17">
       <c r="J342" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K342">
         <v>0.0008190906225110594</v>
@@ -18277,7 +18229,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K343">
         <v>0.0008190906225110594</v>
@@ -21579,7 +21531,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K470">
         <v>0.0007566199427673806</v>
@@ -21605,7 +21557,7 @@
     </row>
     <row r="471" spans="10:17">
       <c r="J471" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K471">
         <v>0.0007180293790233366</v>
@@ -21631,7 +21583,7 @@
     </row>
     <row r="472" spans="10:17">
       <c r="J472" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K472">
         <v>0.0006789691144602105</v>
@@ -21657,7 +21609,7 @@
     </row>
     <row r="473" spans="10:17">
       <c r="J473" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K473">
         <v>0.0006534973742527626</v>
@@ -21683,7 +21635,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K474">
         <v>0.0006438411016008219</v>
@@ -21709,7 +21661,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K475">
         <v>0.0006394267275933536</v>
@@ -21735,7 +21687,7 @@
     </row>
     <row r="476" spans="10:17">
       <c r="J476" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K476">
         <v>0.0006394267275933536</v>
@@ -21761,7 +21713,7 @@
     </row>
     <row r="477" spans="10:17">
       <c r="J477" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K477">
         <v>0.0006394267275933536</v>
@@ -21787,7 +21739,7 @@
     </row>
     <row r="478" spans="10:17">
       <c r="J478" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K478">
         <v>0.0006394267275933536</v>
@@ -21813,7 +21765,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K479">
         <v>0.0006394267275933536</v>
@@ -21839,7 +21791,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K480">
         <v>0.0006037122049872325</v>
@@ -21865,7 +21817,7 @@
     </row>
     <row r="481" spans="10:17">
       <c r="J481" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K481">
         <v>0.0005993907623044894</v>
@@ -21891,7 +21843,7 @@
     </row>
     <row r="482" spans="10:17">
       <c r="J482" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K482">
         <v>0.0005993907623044894</v>
@@ -21917,7 +21869,7 @@
     </row>
     <row r="483" spans="10:17">
       <c r="J483" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K483">
         <v>0.0005588514098215898</v>
@@ -21943,7 +21895,7 @@
     </row>
     <row r="484" spans="10:17">
       <c r="J484" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K484">
         <v>0.0005588514098215898</v>
@@ -21969,7 +21921,7 @@
     </row>
     <row r="485" spans="10:17">
       <c r="J485" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K485">
         <v>0.0005588514098215898</v>
@@ -21995,7 +21947,7 @@
     </row>
     <row r="486" spans="10:17">
       <c r="J486" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K486">
         <v>0.0005588514098215898</v>
@@ -22021,7 +21973,7 @@
     </row>
     <row r="487" spans="10:17">
       <c r="J487" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K487">
         <v>0.0005588514098215898</v>
@@ -22047,7 +21999,7 @@
     </row>
     <row r="488" spans="10:17">
       <c r="J488" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K488">
         <v>0.0005537966798752996</v>
@@ -28755,7 +28707,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K746">
         <v>0.0005234421365885089</v>
@@ -28781,7 +28733,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K747">
         <v>0.0005234421365885089</v>
@@ -28807,7 +28759,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K748">
         <v>0.0005178015095136142</v>
@@ -28833,7 +28785,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K749">
         <v>0.0005178015095136142</v>
@@ -28859,7 +28811,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K750">
         <v>0.0004762380312679457</v>
@@ -28885,7 +28837,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K751">
         <v>0.0004762380312679457</v>
@@ -28911,7 +28863,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K752">
         <v>0.0004762380312679457</v>
@@ -28937,7 +28889,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K753">
         <v>0.0004622673655476298</v>
@@ -28963,7 +28915,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K754">
         <v>0.0004341642997048631</v>
@@ -28989,7 +28941,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K755">
         <v>0.00039159338773842</v>
@@ -29015,7 +28967,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K756">
         <v>0.00039159338773842</v>
@@ -29041,7 +28993,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K757">
         <v>0.0003695482506915921</v>
@@ -29067,7 +29019,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K758">
         <v>0.0003485534040624408</v>
@@ -29093,7 +29045,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K759">
         <v>0.0003257258604154104</v>
@@ -29119,7 +29071,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K760">
         <v>0.0003073740581863655</v>
@@ -29145,7 +29097,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K761">
         <v>0.0003073740581863655</v>
@@ -29171,7 +29123,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K762">
         <v>0.0003050959484692087</v>
@@ -29197,7 +29149,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K763">
         <v>0.0003050959484692087</v>
@@ -29223,7 +29175,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K764">
         <v>0.0003050959484692087</v>
@@ -29249,7 +29201,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K765">
         <v>0.0003050959484692087</v>
@@ -29275,7 +29227,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K766">
         <v>0.0003050959484692087</v>
@@ -29301,7 +29253,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K767">
         <v>0.000261310074039651</v>
@@ -29327,7 +29279,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K768">
         <v>0.000261310074039651</v>
@@ -29353,7 +29305,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K769">
         <v>0.000261310074039651</v>
@@ -29379,7 +29331,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K770">
         <v>0.000261310074039651</v>
@@ -29405,7 +29357,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K771">
         <v>0.000261310074039651</v>
@@ -29431,7 +29383,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K772">
         <v>0.000261310074039651</v>
@@ -29457,7 +29409,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K773">
         <v>0.000261310074039651</v>
@@ -29483,7 +29435,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K774">
         <v>0.000261310074039651</v>
@@ -29509,7 +29461,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K775">
         <v>0.000217346280904408</v>
@@ -29535,7 +29487,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K776">
         <v>0.000217346280904408</v>
@@ -29561,7 +29513,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K777">
         <v>0.000217346280904408</v>
@@ -29587,7 +29539,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K778">
         <v>0.000217346280904408</v>
@@ -29613,7 +29565,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K779">
         <v>0.000217346280904408</v>
@@ -29639,7 +29591,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K780">
         <v>0.000217346280904408</v>
@@ -29665,7 +29617,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K781">
         <v>0.000217346280904408</v>
@@ -29691,7 +29643,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K782">
         <v>0.0002144983154713885</v>
@@ -29717,7 +29669,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K783">
         <v>0.0002144983154713885</v>
@@ -29743,7 +29695,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K784">
         <v>0.0001839814227808658</v>
@@ -29769,7 +29721,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K785">
         <v>0.0001734598715781699</v>
@@ -29795,7 +29747,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K786">
         <v>0.0001734598715781699</v>
@@ -29821,7 +29773,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K787">
         <v>0.0001734598715781699</v>
@@ -29847,7 +29799,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K788">
         <v>0.0001734598715781699</v>
@@ -29873,7 +29825,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K789">
         <v>0.0001734598715781699</v>
@@ -29899,7 +29851,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K790">
         <v>0.0001734598715781699</v>
@@ -29925,7 +29877,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K791">
         <v>0.0001734598715781699</v>
@@ -29951,7 +29903,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K792">
         <v>0.0001734598715781699</v>
@@ -29977,7 +29929,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K793">
         <v>0.0001734598715781699</v>
@@ -30003,7 +29955,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K794">
         <v>0.0001734598715781699</v>
@@ -30029,7 +29981,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K795">
         <v>0.0001734598715781699</v>
@@ -30055,7 +30007,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K796">
         <v>0.0001539186299976022</v>
@@ -30081,7 +30033,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K797">
         <v>0.0001300945116606994</v>
@@ -30107,7 +30059,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K798">
         <v>0.0001300945116606994</v>
@@ -30133,7 +30085,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K799">
         <v>0.0001300945116606994</v>
@@ -30159,7 +30111,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K800">
         <v>0.0001300945116606994</v>
@@ -30185,7 +30137,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K801">
         <v>0.0001300945116606994</v>
@@ -30211,7 +30163,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K802">
         <v>0.0001300945116606994</v>
@@ -30237,7 +30189,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K803">
         <v>0.0001300945116606994</v>
@@ -30263,7 +30215,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K804">
         <v>0.0001300945116606994</v>
@@ -30289,7 +30241,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K805">
         <v>0.0001300945116606994</v>
@@ -30315,7 +30267,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K806">
         <v>9.613930680625503E-05</v>
@@ -30341,7 +30293,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K807">
         <v>9.613930680625503E-05</v>
@@ -30367,7 +30319,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K808">
         <v>8.805765956415995E-05</v>
@@ -30393,7 +30345,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K809">
         <v>8.805765956415995E-05</v>
@@ -30419,7 +30371,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K810">
         <v>8.805765956415995E-05</v>
@@ -30445,7 +30397,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K811">
         <v>8.805765956415995E-05</v>
@@ -30471,7 +30423,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K812">
         <v>8.805765956415995E-05</v>
@@ -30497,7 +30449,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K813">
         <v>8.805765956415995E-05</v>
@@ -30523,7 +30475,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K814">
         <v>8.805765956415995E-05</v>
@@ -30549,7 +30501,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K815">
         <v>8.805765956415995E-05</v>
@@ -30575,7 +30527,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K816">
         <v>8.805765956415995E-05</v>
@@ -30601,7 +30553,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K817">
         <v>8.805765956415995E-05</v>
@@ -30627,7 +30579,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K818">
         <v>6.284983766673191E-05</v>
@@ -30653,7 +30605,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K819">
         <v>4.893531485162096E-05</v>
@@ -30679,7 +30631,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K820">
         <v>4.893531485162096E-05</v>
@@ -30705,7 +30657,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K821">
         <v>4.893531485162096E-05</v>
@@ -30731,7 +30683,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K822">
         <v>4.893531485162096E-05</v>
@@ -30757,7 +30709,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K823">
         <v>4.893531485162096E-05</v>
@@ -30783,7 +30735,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K824">
         <v>4.893531485162096E-05</v>
@@ -30809,7 +30761,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K825">
         <v>4.893531485162096E-05</v>
@@ -30835,7 +30787,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K826">
         <v>4.893531485162096E-05</v>
@@ -30861,7 +30813,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K827">
         <v>4.893531485162096E-05</v>
@@ -30887,7 +30839,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K828">
         <v>4.893531485162096E-05</v>
@@ -30913,7 +30865,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K829">
         <v>4.893531485162096E-05</v>
@@ -30939,7 +30891,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K830">
         <v>4.893531485162096E-05</v>
@@ -30965,7 +30917,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K831">
         <v>4.893531485162096E-05</v>
@@ -30991,7 +30943,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K832">
         <v>4.893531485162096E-05</v>
@@ -31017,7 +30969,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K833">
         <v>4.893531485162096E-05</v>
@@ -31043,7 +30995,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K834">
         <v>4.444154641061982E-05</v>
@@ -31069,7 +31021,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K835">
         <v>4.444154641061982E-05</v>
@@ -31095,7 +31047,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K836">
         <v>1.62629991033182E-05</v>
@@ -31121,7 +31073,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K837">
         <v>1.62629991033182E-05</v>
@@ -31147,7 +31099,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K838">
         <v>1.62629991033182E-05</v>
@@ -31173,7 +31125,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K839">
         <v>1.62629991033182E-05</v>
@@ -31199,7 +31151,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K840">
         <v>1.62629991033182E-05</v>
@@ -31225,7 +31177,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K841">
         <v>1.62629991033182E-05</v>
@@ -31251,7 +31203,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K842">
         <v>1.62629991033182E-05</v>
@@ -31277,7 +31229,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K843">
         <v>1.62629991033182E-05</v>
@@ -31303,7 +31255,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K844">
         <v>1.62629991033182E-05</v>
@@ -31329,7 +31281,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K845">
         <v>1.62629991033182E-05</v>
@@ -31355,7 +31307,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K846">
         <v>1.62629991033182E-05</v>
@@ -31381,7 +31333,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K847">
         <v>1.62629991033182E-05</v>
@@ -31407,7 +31359,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K848">
         <v>1.62629991033182E-05</v>
@@ -31433,7 +31385,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K849">
         <v>1.62629991033182E-05</v>
@@ -31459,7 +31411,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K850">
         <v>1.62629991033182E-05</v>
@@ -31485,7 +31437,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K851">
         <v>1.62629991033182E-05</v>
@@ -31511,7 +31463,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K852">
         <v>1.149967694838686E-05</v>
@@ -31537,7 +31489,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K853">
         <v>6.882692013509299E-06</v>
@@ -31563,7 +31515,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K854">
         <v>0</v>
@@ -31589,7 +31541,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K855">
         <v>0</v>
@@ -31615,7 +31567,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K856">
         <v>0</v>
@@ -31641,7 +31593,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K857">
         <v>0</v>
@@ -31667,7 +31619,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K858">
         <v>0</v>
@@ -31693,7 +31645,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K859">
         <v>0</v>
@@ -31719,7 +31671,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K860">
         <v>0</v>
@@ -31745,7 +31697,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K861">
         <v>0</v>
@@ -31771,7 +31723,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K862">
         <v>0</v>
@@ -31797,7 +31749,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K863">
         <v>0</v>
@@ -31823,7 +31775,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K864">
         <v>0</v>
@@ -31849,7 +31801,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K865">
         <v>0</v>
@@ -31875,7 +31827,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K866">
         <v>0</v>
@@ -31901,7 +31853,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K867">
         <v>0</v>
@@ -31927,7 +31879,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K868">
         <v>0</v>
@@ -31953,7 +31905,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K869">
         <v>0</v>
@@ -31979,7 +31931,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K870">
         <v>0</v>
